--- a/Testdata/ImportPublicationsPage_Data_Testing.xlsx
+++ b/Testdata/ImportPublicationsPage_Data_Testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDF69E9-0C30-4152-A3E6-0C0719A6A301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAC0E49-8ADB-47E3-9AB7-7B9C519A3C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Expected_File_names</t>
   </si>
@@ -46,15 +46,9 @@
     <t>ICER RRMM - Success Case Sheet.xlsx</t>
   </si>
   <si>
-    <t>\Testdata\Templates\ImportPublications\ICER RRMM - Success Case Sheet.xlsx</t>
-  </si>
-  <si>
     <t>mCRPC - Failure Case Sheet.xlsx</t>
   </si>
   <si>
-    <t>\Testdata\Templates\ImportPublications\mCRPC - Failure Case Sheet.xlsx</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -71,16 +65,64 @@
   </si>
   <si>
     <t>IC AML - Pfizer - Ovid search - 5/10/2021</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Testing_Env\ICER RRMM - Success Case Sheet.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Testing_Env\mCRPC - Failure Case Sheet.xlsx</t>
+  </si>
+  <si>
+    <t>pop3</t>
+  </si>
+  <si>
+    <t>pop4</t>
+  </si>
+  <si>
+    <t>pop5</t>
+  </si>
+  <si>
+    <t>pop6</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Testing_Env\ICER RRMM - Header Mismatch.xlsx</t>
+  </si>
+  <si>
+    <t>ICER RRMM - Header Mismatch.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Testing_Env\ICER RRMM - Letters in Publication Identifier.xlsx</t>
+  </si>
+  <si>
+    <t>ICER RRMM - Letters in Publication Identifier.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Testing_Env\ICER RRMM - Empty value in Publication Identifier.xlsx</t>
+  </si>
+  <si>
+    <t>ICER RRMM - Empty value in Publication Identifier.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Testing_Env\ICER RRMM - Duplicate value in FA18 column.xlsx</t>
+  </si>
+  <si>
+    <t>ICER RRMM - Duplicate value in FA18 column.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -392,27 +434,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="2"/>
-    <col min="3" max="3" width="27.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="24.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -423,33 +465,90 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/Testdata/ImportPublicationsPage_Data_Testing.xlsx
+++ b/Testdata/ImportPublicationsPage_Data_Testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAC0E49-8ADB-47E3-9AB7-7B9C519A3C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9271EE-8649-437F-8E49-B92ABCF65C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,12 +61,6 @@
     <t>pop2</t>
   </si>
   <si>
-    <t>ICER RRMM 2022 report - ICER - Ovid search - 4/11/2022</t>
-  </si>
-  <si>
-    <t>IC AML - Pfizer - Ovid search - 5/10/2021</t>
-  </si>
-  <si>
     <t>\Testdata\Templates\ImportPublications\Testing_Env\ICER RRMM - Success Case Sheet.xlsx</t>
   </si>
   <si>
@@ -107,6 +101,12 @@
   </si>
   <si>
     <t>ICER RRMM - Duplicate value in FA18 column.xlsx</t>
+  </si>
+  <si>
+    <t>ICER RRMM 2022 report - ICER - 4/11/2022</t>
+  </si>
+  <si>
+    <t>IC AML - Pfizer - 5/10/2021</t>
   </si>
 </sst>
 </file>
@@ -148,12 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,16 +436,15 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="24.44140625" style="2"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -467,84 +465,84 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/ImportPublicationsPage_Data_Testing.xlsx
+++ b/Testdata/ImportPublicationsPage_Data_Testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9271EE-8649-437F-8E49-B92ABCF65C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D1FB68-FC4F-4E28-9468-D49E56414322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,12 +43,6 @@
     <t>Files_to_upload</t>
   </si>
   <si>
-    <t>ICER RRMM - Success Case Sheet.xlsx</t>
-  </si>
-  <si>
-    <t>mCRPC - Failure Case Sheet.xlsx</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -61,12 +55,6 @@
     <t>pop2</t>
   </si>
   <si>
-    <t>\Testdata\Templates\ImportPublications\Testing_Env\ICER RRMM - Success Case Sheet.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\ImportPublications\Testing_Env\mCRPC - Failure Case Sheet.xlsx</t>
-  </si>
-  <si>
     <t>pop3</t>
   </si>
   <si>
@@ -103,10 +91,22 @@
     <t>ICER RRMM - Duplicate value in FA18 column.xlsx</t>
   </si>
   <si>
-    <t>ICER RRMM 2022 report - ICER - 4/11/2022</t>
-  </si>
-  <si>
-    <t>IC AML - Pfizer - 5/10/2021</t>
+    <t>ICER RRMM 2022 report - ICER - 12/19/2022</t>
+  </si>
+  <si>
+    <t>UtilityOutcome - PRODFix_QOL_ECON - 9/19/2022</t>
+  </si>
+  <si>
+    <t>Success Case Sheet.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Testing_Env\Success Case Sheet.xlsx</t>
+  </si>
+  <si>
+    <t>Failure Case Sheet.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Testing_Env\Failure Case Sheet.xlsx</t>
   </si>
 </sst>
 </file>
@@ -436,23 +436,23 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -463,86 +463,86 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/ImportPublicationsPage_Data_Testing.xlsx
+++ b/Testdata/ImportPublicationsPage_Data_Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D1FB68-FC4F-4E28-9468-D49E56414322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910F86F1-1D96-4CBA-AC1D-5296D5A0932D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,12 +91,6 @@
     <t>ICER RRMM - Duplicate value in FA18 column.xlsx</t>
   </si>
   <si>
-    <t>ICER RRMM 2022 report - ICER - 12/19/2022</t>
-  </si>
-  <si>
-    <t>UtilityOutcome - PRODFix_QOL_ECON - 9/19/2022</t>
-  </si>
-  <si>
     <t>Success Case Sheet.xlsx</t>
   </si>
   <si>
@@ -107,6 +101,12 @@
   </si>
   <si>
     <t>\Testdata\Templates\ImportPublications\Testing_Env\Failure Case Sheet.xlsx</t>
+  </si>
+  <si>
+    <t>ICER - ICER RRMM 2022 report - 12/19/2022</t>
+  </si>
+  <si>
+    <t>PRODFix_QOL_ECON - UtilityOutcome - 9/19/2022</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,13 +466,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -480,13 +480,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -494,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -508,7 +508,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -522,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -536,7 +536,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>

--- a/Testdata/ImportPublicationsPage_Data_Testing.xlsx
+++ b/Testdata/ImportPublicationsPage_Data_Testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910F86F1-1D96-4CBA-AC1D-5296D5A0932D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBAA300-4ECF-4344-9237-E77DFA73BEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Expected_File_names</t>
   </si>
@@ -64,9 +64,6 @@
     <t>pop5</t>
   </si>
   <si>
-    <t>pop6</t>
-  </si>
-  <si>
     <t>\Testdata\Templates\ImportPublications\Testing_Env\ICER RRMM - Header Mismatch.xlsx</t>
   </si>
   <si>
@@ -97,16 +94,37 @@
     <t>\Testdata\Templates\ImportPublications\Testing_Env\Success Case Sheet.xlsx</t>
   </si>
   <si>
-    <t>Failure Case Sheet.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\ImportPublications\Testing_Env\Failure Case Sheet.xlsx</t>
-  </si>
-  <si>
     <t>ICER - ICER RRMM 2022 report - 12/19/2022</t>
   </si>
   <si>
-    <t>PRODFix_QOL_ECON - UtilityOutcome - 9/19/2022</t>
+    <t>error_msg_col1</t>
+  </si>
+  <si>
+    <t>error_msg_col2</t>
+  </si>
+  <si>
+    <t>In column 'B' of the extraction file, variable ID should be 'FA-2' when the actual value is 'FA-4'</t>
+  </si>
+  <si>
+    <t>In column 'C' of the extraction file, variable ID should be 'FA-3' when the actual value is 'FA-2'</t>
+  </si>
+  <si>
+    <t>In column 'D' of the extraction file, variable ID should be 'FA-4' when the actual value is 'FA-3'</t>
+  </si>
+  <si>
+    <t>Publication Identifier (fa-2) : Value should be a numeric ID or a list of comma-separated numeric IDs</t>
+  </si>
+  <si>
+    <t>Property 'Publication Identifier (FA-2)' is mandatory</t>
+  </si>
+  <si>
+    <t>The Product Dexamethasone is duplicated</t>
+  </si>
+  <si>
+    <t>The Product Bortezomib is duplicated</t>
+  </si>
+  <si>
+    <t>The Product Lenalidomide, Dexamethasone is duplicated</t>
   </si>
 </sst>
 </file>
@@ -148,11 +166,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,21 +452,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -460,89 +481,205 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
+      <c r="E18">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/ImportPublicationsPage_Data_Testing.xlsx
+++ b/Testdata/ImportPublicationsPage_Data_Testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBAA300-4ECF-4344-9237-E77DFA73BEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8081CAF-965B-4C75-AB57-F2407C1CC987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Expected_File_names</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>The Product Lenalidomide, Dexamethasone is duplicated</t>
+  </si>
+  <si>
+    <t>error_msg</t>
+  </si>
+  <si>
+    <t>There is already an existing extraction file for ICER - ICER RRMM 2022 report , please remove the previous upload and re-upload.</t>
   </si>
 </sst>
 </file>
@@ -166,12 +172,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,11 +469,11 @@
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" style="2"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -487,8 +492,11 @@
       <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -501,8 +509,11 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -522,7 +533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -533,7 +544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -544,11 +555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E7"/>
-      <c r="F7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -568,7 +575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -579,7 +586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -590,11 +597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E11"/>
-      <c r="F11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -614,7 +617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -625,7 +628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -636,11 +639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E15"/>
-      <c r="F15"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>

--- a/Testdata/ImportPublicationsPage_Data_Testing.xlsx
+++ b/Testdata/ImportPublicationsPage_Data_Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8081CAF-965B-4C75-AB57-F2407C1CC987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9E99B1-2D67-429C-945B-C19B5641501A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,21 +82,12 @@
     <t>ICER RRMM - Empty value in Publication Identifier.xlsx</t>
   </si>
   <si>
-    <t>\Testdata\Templates\ImportPublications\Testing_Env\ICER RRMM - Duplicate value in FA18 column.xlsx</t>
-  </si>
-  <si>
-    <t>ICER RRMM - Duplicate value in FA18 column.xlsx</t>
-  </si>
-  <si>
     <t>Success Case Sheet.xlsx</t>
   </si>
   <si>
     <t>\Testdata\Templates\ImportPublications\Testing_Env\Success Case Sheet.xlsx</t>
   </si>
   <si>
-    <t>ICER - ICER RRMM 2022 report - 12/19/2022</t>
-  </si>
-  <si>
     <t>error_msg_col1</t>
   </si>
   <si>
@@ -131,6 +122,15 @@
   </si>
   <si>
     <t>There is already an existing extraction file for ICER - ICER RRMM 2022 report , please remove the previous upload and re-upload.</t>
+  </si>
+  <si>
+    <t>ICER RRMM - Duplicate value in FA19 column.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Testing_Env\ICER RRMM - Duplicate value in FA19 column.xlsx</t>
+  </si>
+  <si>
+    <t>ICER - ICER RRMM 2022 report</t>
   </si>
 </sst>
 </file>
@@ -459,14 +459,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
@@ -487,13 +487,13 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -501,16 +501,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -518,7 +518,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -530,7 +530,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -560,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -572,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -583,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -594,7 +594,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -602,7 +602,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -614,7 +614,7 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -625,7 +625,7 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -636,7 +636,7 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -644,19 +644,19 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -667,7 +667,7 @@
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -678,7 +678,7 @@
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/ImportPublicationsPage_Data_Testing.xlsx
+++ b/Testdata/ImportPublicationsPage_Data_Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9E99B1-2D67-429C-945B-C19B5641501A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2579D725-C703-4EA3-96FD-37930AD411D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
   <si>
     <t>Expected_File_names</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Population_name</t>
-  </si>
-  <si>
     <t>pop1</t>
   </si>
   <si>
@@ -64,30 +61,6 @@
     <t>pop5</t>
   </si>
   <si>
-    <t>\Testdata\Templates\ImportPublications\Testing_Env\ICER RRMM - Header Mismatch.xlsx</t>
-  </si>
-  <si>
-    <t>ICER RRMM - Header Mismatch.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\ImportPublications\Testing_Env\ICER RRMM - Letters in Publication Identifier.xlsx</t>
-  </si>
-  <si>
-    <t>ICER RRMM - Letters in Publication Identifier.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\ImportPublications\Testing_Env\ICER RRMM - Empty value in Publication Identifier.xlsx</t>
-  </si>
-  <si>
-    <t>ICER RRMM - Empty value in Publication Identifier.xlsx</t>
-  </si>
-  <si>
-    <t>Success Case Sheet.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\ImportPublications\Testing_Env\Success Case Sheet.xlsx</t>
-  </si>
-  <si>
     <t>error_msg_col1</t>
   </si>
   <si>
@@ -109,28 +82,175 @@
     <t>Property 'Publication Identifier (FA-2)' is mandatory</t>
   </si>
   <si>
-    <t>The Product Dexamethasone is duplicated</t>
-  </si>
-  <si>
-    <t>The Product Bortezomib is duplicated</t>
-  </si>
-  <si>
-    <t>The Product Lenalidomide, Dexamethasone is duplicated</t>
-  </si>
-  <si>
-    <t>error_msg</t>
-  </si>
-  <si>
-    <t>There is already an existing extraction file for ICER - ICER RRMM 2022 report , please remove the previous upload and re-upload.</t>
-  </si>
-  <si>
-    <t>ICER RRMM - Duplicate value in FA19 column.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\ImportPublications\Testing_Env\ICER RRMM - Duplicate value in FA19 column.xlsx</t>
-  </si>
-  <si>
-    <t>ICER - ICER RRMM 2022 report</t>
+    <t>In column 'FJ' of the extraction file, variable ID should be 'FF-1' when the actual value is 'FFF-1'</t>
+  </si>
+  <si>
+    <t>In column 'HI' of the extraction file, variable ID should be 'FK-13' when the actual value is 'FK-12'</t>
+  </si>
+  <si>
+    <t>In column 'JJ' of the extraction file, variable ID should be 'FL-4' when the actual value is 'FL$-4'</t>
+  </si>
+  <si>
+    <t>In column 'HH' of the extraction file, variable ID should be 'FK-12' when the actual value is 'FK-13'</t>
+  </si>
+  <si>
+    <t>The Product Afatinib is duplicated</t>
+  </si>
+  <si>
+    <t>The Product CLN-081 is duplicated</t>
+  </si>
+  <si>
+    <t>The Product Docetaxel, Nintedanib is duplicated</t>
+  </si>
+  <si>
+    <t>The Product Gefitinib, Erlotinib is duplicated</t>
+  </si>
+  <si>
+    <t>The Product Gefitinib is duplicated</t>
+  </si>
+  <si>
+    <t>The Product Placebo is duplicated</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Testing_Env\Success Sheet.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Testing_Env\Header Mismatch.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Testing_Env\Letters in Publication Identifier.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Testing_Env\Empty value in Publication Identifier.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Testing_Env\Duplicate value in FA19 column.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Testing_Env\Invalid Date Format.xlsx</t>
+  </si>
+  <si>
+    <t>pop6</t>
+  </si>
+  <si>
+    <t>2022-11-04 that you entered in 'Update date' has not been added to LiveSLR for this project. Please add this date to 'Manage update' page and try again</t>
+  </si>
+  <si>
+    <t>The value(s) in 'Update date' have to be in this format yyyy-mm-dd.</t>
+  </si>
+  <si>
+    <t>Invalid Date Format.xlsx</t>
+  </si>
+  <si>
+    <t>Duplicate value in FA19 column.xlsx</t>
+  </si>
+  <si>
+    <t>Empty value in Publication Identifier.xlsx</t>
+  </si>
+  <si>
+    <t>Letters in Publication Identifier.xlsx</t>
+  </si>
+  <si>
+    <t>Header Mismatch.xlsx</t>
+  </si>
+  <si>
+    <t>NewImportLogic_2 - Test_Automation_2</t>
+  </si>
+  <si>
+    <t>Success Sheet.xlsx</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Population_Radio_button</t>
+  </si>
+  <si>
+    <t>slrtype</t>
+  </si>
+  <si>
+    <t>slrtype_Radio_button</t>
+  </si>
+  <si>
+    <t>Clinical</t>
+  </si>
+  <si>
+    <t>Clinical_radio_button</t>
+  </si>
+  <si>
+    <t>Economic</t>
+  </si>
+  <si>
+    <t>Economic_radio_button</t>
+  </si>
+  <si>
+    <t>Quality of Life</t>
+  </si>
+  <si>
+    <t>Quality of Life_radio_button</t>
+  </si>
+  <si>
+    <t>Real-world Evidence</t>
+  </si>
+  <si>
+    <t>Real-world Evidence_radio_button</t>
+  </si>
+  <si>
+    <t>NewImportLogic_2 - Test_Automation_2_radio_button</t>
+  </si>
+  <si>
+    <t>ExpectedSourceTemplateFile</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ImportPublications\Testing_Env\Expected_Reports\Expected_Data.xlsx</t>
+  </si>
+  <si>
+    <t>ExpectedFilenames</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_2-Test_Automation_2-Clinical-2023_</t>
+  </si>
+  <si>
+    <t>ExcelReport-NewImportLogic_2-Test_Automation_2-Clinical-</t>
+  </si>
+  <si>
+    <t>WordReport-NewImportLogic_2 - Test_Automation_2-Clinical-</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_2-Test_Automation_2-Economic-2023_</t>
+  </si>
+  <si>
+    <t>ExcelReport-NewImportLogic_2-Test_Automation_2-Economic-</t>
+  </si>
+  <si>
+    <t>WordReport-NewImportLogic_2 - Test_Automation_2-Economic-</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_2-Test_Automation_2-Quality of Life-2023_</t>
+  </si>
+  <si>
+    <t>ExcelReport-NewImportLogic_2-Test_Automation_2-Quality of Life-</t>
+  </si>
+  <si>
+    <t>WordReport-NewImportLogic_2 - Test_Automation_2-Quality of Life-</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_2-Test_Automation_2-Real-world Evidence-2023_</t>
+  </si>
+  <si>
+    <t>ExcelReport-NewImportLogic_2-Test_Automation_2-Real-world Evidence-</t>
+  </si>
+  <si>
+    <t>WordReport-NewImportLogic_2 - Test_Automation_2-Real-world Evidence-</t>
+  </si>
+  <si>
+    <t>Update date (yyyy-mm-dd) '' is not supported.</t>
+  </si>
+  <si>
+    <t>Update date (yyyy-mm-dd) 'NR' is not supported.</t>
+  </si>
+  <si>
+    <t>Update date (yyyy-mm-dd) 'NA' is not supported.</t>
   </si>
 </sst>
 </file>
@@ -457,228 +577,540 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>64</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>120</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>150</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>22</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>75</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>109</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>136</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29">
+        <v>7</v>
+      </c>
+      <c r="I29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>75</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32">
+        <v>99</v>
+      </c>
+      <c r="I32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>109</v>
+      </c>
+      <c r="I33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34">
+        <v>151</v>
+      </c>
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+      <c r="I36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="H37">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="H38">
+        <v>62</v>
+      </c>
+      <c r="I38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="H39">
+        <v>124</v>
+      </c>
+      <c r="I39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s">
-        <v>26</v>
+      <c r="H40">
+        <v>134</v>
+      </c>
+      <c r="I40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41">
+        <v>152</v>
+      </c>
+      <c r="I41" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
